--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_38.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_38.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_6</t>
+          <t>model_1_38_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999060261012964</v>
+        <v>0.9370609584989833</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8278765546840419</v>
+        <v>0.736842266313218</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8197424380501825</v>
+        <v>0.6458762718749167</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999343103599534</v>
+        <v>0.9589475086031661</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0003911688621591761</v>
+        <v>0.2619854405210441</v>
       </c>
       <c r="G2" t="n">
-        <v>1.150990271383402</v>
+        <v>1.759736976893456</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6447708471605247</v>
+        <v>1.266680042229898</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0004983343705418302</v>
+        <v>0.2499915727068445</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06414546013518858</v>
+        <v>1.297355818876419</v>
       </c>
       <c r="K2" t="n">
-        <v>0.01977798933560174</v>
+        <v>0.5118451333372664</v>
       </c>
       <c r="L2" t="n">
-        <v>1.006014329517029</v>
+        <v>0.9142957732752113</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02008947289690151</v>
+        <v>0.5199061825299092</v>
       </c>
       <c r="N2" t="n">
-        <v>145.6927424373583</v>
+        <v>36.67893269459101</v>
       </c>
       <c r="O2" t="n">
-        <v>287.0279149805747</v>
+        <v>73.64351628281683</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_5</t>
+          <t>model_1_38_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999041937640502</v>
+        <v>0.9370772902487138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8277093331187455</v>
+        <v>0.7366964821143575</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8198948517153125</v>
+        <v>0.6456392017460204</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999403387509003</v>
+        <v>0.958807803412163</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0003987960148641235</v>
+        <v>0.2619174591767849</v>
       </c>
       <c r="G3" t="n">
-        <v>1.152108482760523</v>
+        <v>1.760711836502511</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6442256723178067</v>
+        <v>1.267528028334844</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004526018257178741</v>
+        <v>0.2508423157245233</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0613779946818705</v>
+        <v>1.296638133538747</v>
       </c>
       <c r="K3" t="n">
-        <v>0.01996987768776072</v>
+        <v>0.5117787209104976</v>
       </c>
       <c r="L3" t="n">
-        <v>1.00613159910079</v>
+        <v>0.9143180122535677</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02028438329878902</v>
+        <v>0.5198387241738068</v>
       </c>
       <c r="N3" t="n">
-        <v>145.6541210254893</v>
+        <v>36.67945173233392</v>
       </c>
       <c r="O3" t="n">
-        <v>286.9892935687057</v>
+        <v>73.64403532055974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_8</t>
+          <t>model_1_38_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999186319459263</v>
+        <v>0.9371067914365505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8276699471719867</v>
+        <v>0.7364025361162776</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8195168677337703</v>
+        <v>0.6451644688504696</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999303964087236</v>
+        <v>0.9585297972054279</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0003386966973507954</v>
+        <v>0.2617946596948261</v>
       </c>
       <c r="G4" t="n">
-        <v>1.152371856767855</v>
+        <v>1.762677454745168</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6455776991030128</v>
+        <v>1.269226120375634</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0005280263649111114</v>
+        <v>0.2525352509515761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05774640188156681</v>
+        <v>1.295224941851115</v>
       </c>
       <c r="K4" t="n">
-        <v>0.01840371422704655</v>
+        <v>0.5116587336250854</v>
       </c>
       <c r="L4" t="n">
-        <v>1.005207555460714</v>
+        <v>0.9143581840838134</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01869355432915768</v>
+        <v>0.5197168472085927</v>
       </c>
       <c r="N4" t="n">
-        <v>145.9808110982906</v>
+        <v>36.68038964825975</v>
       </c>
       <c r="O4" t="n">
-        <v>287.315983641507</v>
+        <v>73.64497323648557</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_9</t>
+          <t>model_1_38_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999177795099023</v>
+        <v>0.9371323646501716</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8276321482485128</v>
+        <v>0.7361137667808866</v>
       </c>
       <c r="D5" t="n">
-        <v>0.819520686058296</v>
+        <v>0.6446882643573363</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999274416615539</v>
+        <v>0.9582538916486065</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0003422449850579614</v>
+        <v>0.2616882105104049</v>
       </c>
       <c r="G5" t="n">
-        <v>1.152624618343173</v>
+        <v>1.764608456620588</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6455640411775835</v>
+        <v>1.27092947623565</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005504416509421833</v>
+        <v>0.2542153941468233</v>
       </c>
       <c r="J5" t="n">
-        <v>0.05749906265849371</v>
+        <v>1.293841360946152</v>
       </c>
       <c r="K5" t="n">
-        <v>0.01849986446052947</v>
+        <v>0.5115546994314536</v>
       </c>
       <c r="L5" t="n">
-        <v>1.00526211136625</v>
+        <v>0.9143930071832124</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01879121883270299</v>
+        <v>0.5196111745804072</v>
       </c>
       <c r="N5" t="n">
-        <v>145.9599674935303</v>
+        <v>36.68120304019249</v>
       </c>
       <c r="O5" t="n">
-        <v>287.2951400367467</v>
+        <v>73.64578662841831</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_7</t>
+          <t>model_1_38_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999171356090845</v>
+        <v>0.9371437126230768</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8276140188943548</v>
+        <v>0.7359688076856392</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8199898089679083</v>
+        <v>0.6444498880842544</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999397517825612</v>
+        <v>0.9581166764830333</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003449252394025588</v>
+        <v>0.2616409742702317</v>
       </c>
       <c r="G6" t="n">
-        <v>1.152745849417905</v>
+        <v>1.765577798757982</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6438860157312096</v>
+        <v>1.271782134342613</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004570546815643566</v>
+        <v>0.2550509740074776</v>
       </c>
       <c r="J6" t="n">
-        <v>0.05889316933627839</v>
+        <v>1.293163141264782</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01857216302433722</v>
+        <v>0.5115085280523011</v>
       </c>
       <c r="L6" t="n">
-        <v>1.005303321018594</v>
+        <v>0.9144084597420621</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01886465602661867</v>
+        <v>0.5195642760481874</v>
       </c>
       <c r="N6" t="n">
-        <v>145.9443657235981</v>
+        <v>36.68156408438169</v>
       </c>
       <c r="O6" t="n">
-        <v>287.2795382668145</v>
+        <v>73.64614767260751</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_0</t>
+          <t>model_1_38_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998737268849273</v>
+        <v>0.937199275278739</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8275425395413835</v>
+        <v>0.7350072753979967</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8210805907202312</v>
+        <v>0.6427813206322548</v>
       </c>
       <c r="E7" t="n">
-        <v>0.99997598704415</v>
+        <v>0.9571722125986364</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0005256152125827158</v>
+        <v>0.2614096932326908</v>
       </c>
       <c r="G7" t="n">
-        <v>1.153223832180357</v>
+        <v>1.772007569592897</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6399843526503102</v>
+        <v>1.277750503369316</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0001821669479367544</v>
+        <v>0.2608023426526317</v>
       </c>
       <c r="J7" t="n">
-        <v>0.06589801661223961</v>
+        <v>1.288608636078081</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02292629958328896</v>
+        <v>0.5112824006678607</v>
       </c>
       <c r="L7" t="n">
-        <v>1.008081479364655</v>
+        <v>0.9144841195284957</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02328736588383418</v>
+        <v>0.5193345873834865</v>
       </c>
       <c r="N7" t="n">
-        <v>145.1018822958854</v>
+        <v>36.68333279297521</v>
       </c>
       <c r="O7" t="n">
-        <v>286.4370548391018</v>
+        <v>73.64791638120103</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_4</t>
+          <t>model_1_38_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998964664712533</v>
+        <v>0.937214262548527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8275192853190392</v>
+        <v>0.7334175629444737</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8203343520223246</v>
+        <v>0.6399555925167177</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999284002633726</v>
+        <v>0.9556235663074953</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0004309610774252532</v>
+        <v>0.2613473083220856</v>
       </c>
       <c r="G8" t="n">
-        <v>1.153379333272249</v>
+        <v>1.782637984089558</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6426536052033164</v>
+        <v>1.287857968993461</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0005431695113241317</v>
+        <v>0.2702329157729473</v>
       </c>
       <c r="J8" t="n">
-        <v>0.06227890229522207</v>
+        <v>1.281567174589172</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0207596020536342</v>
+        <v>0.5112213887564619</v>
       </c>
       <c r="L8" t="n">
-        <v>1.006626145839789</v>
+        <v>0.9145045277256538</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02108654503399026</v>
+        <v>0.5192726145954729</v>
       </c>
       <c r="N8" t="n">
-        <v>145.498985559073</v>
+        <v>36.68381014601469</v>
       </c>
       <c r="O8" t="n">
-        <v>286.8341581022895</v>
+        <v>73.64839373424051</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_1</t>
+          <t>model_1_38_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998712504033066</v>
+        <v>0.9372117833981598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.827477647315547</v>
+        <v>0.733291119215405</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8212369980330424</v>
+        <v>0.6397236969441598</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999669248296739</v>
+        <v>0.9554988140656876</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005359236334426383</v>
+        <v>0.2613576278516748</v>
       </c>
       <c r="G9" t="n">
-        <v>1.153657766793327</v>
+        <v>1.78348351388806</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6394248927614019</v>
+        <v>1.288687446010424</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002509146674168857</v>
+        <v>0.2709926019227294</v>
       </c>
       <c r="J9" t="n">
-        <v>0.06537749401668019</v>
+        <v>1.281044748776228</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02315002448038961</v>
+        <v>0.5112314816711455</v>
       </c>
       <c r="L9" t="n">
-        <v>1.008239974188378</v>
+        <v>0.914501151861324</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02351461422442131</v>
+        <v>0.5192828664634734</v>
       </c>
       <c r="N9" t="n">
-        <v>145.0630377639289</v>
+        <v>36.68373117580511</v>
       </c>
       <c r="O9" t="n">
-        <v>286.3982103071453</v>
+        <v>73.64831476403093</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_3</t>
+          <t>model_1_38_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998879880940221</v>
+        <v>0.9371923579470468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8274225110771106</v>
+        <v>0.7326755090127917</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8208866283406591</v>
+        <v>0.6385755088152645</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999284195652932</v>
+        <v>0.954885268352513</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0004662525489960299</v>
+        <v>0.2614384868105304</v>
       </c>
       <c r="G10" t="n">
-        <v>1.15402646307363</v>
+        <v>1.78760010214756</v>
       </c>
       <c r="H10" t="n">
-        <v>0.640678144835455</v>
+        <v>1.292794448371709</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0005430230832042641</v>
+        <v>0.2747288248058035</v>
       </c>
       <c r="J10" t="n">
-        <v>0.06144711939205762</v>
+        <v>1.278498482231186</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02159288190575843</v>
+        <v>0.5113105580863067</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007168761982584</v>
+        <v>0.9144747001832126</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0219329482108112</v>
+        <v>0.519363188253126</v>
       </c>
       <c r="N10" t="n">
-        <v>145.3415662400112</v>
+        <v>36.68311251046133</v>
       </c>
       <c r="O10" t="n">
-        <v>286.6767387832276</v>
+        <v>73.64769609868715</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_38_2</t>
+          <t>model_1_38_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998822087908774</v>
+        <v>0.9371871600838066</v>
       </c>
       <c r="C11" t="n">
-        <v>0.827218336040129</v>
+        <v>0.7325540369274444</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8208429181896099</v>
+        <v>0.6383482923187996</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999391407624721</v>
+        <v>0.9547646580518112</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0004903090526249696</v>
+        <v>0.2614601230550341</v>
       </c>
       <c r="G11" t="n">
-        <v>1.155391782486066</v>
+        <v>1.788412386541604</v>
       </c>
       <c r="H11" t="n">
-        <v>0.640834493511298</v>
+        <v>1.293607188604795</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004616899986600545</v>
+        <v>0.2754632883604179</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06425797330294122</v>
+        <v>1.278003280177556</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02214292330802258</v>
+        <v>0.5113317152837619</v>
       </c>
       <c r="L11" t="n">
-        <v>1.007538637383846</v>
+        <v>0.9144676222417792</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02249165221532132</v>
+        <v>0.5193846786552917</v>
       </c>
       <c r="N11" t="n">
-        <v>145.2409492920737</v>
+        <v>36.6829470004056</v>
       </c>
       <c r="O11" t="n">
-        <v>286.5761218352901</v>
+        <v>73.64753058863141</v>
       </c>
     </row>
   </sheetData>
